--- a/Datasets/product data.xlsx
+++ b/Datasets/product data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANJANA\Documents\IITM BS\BDM_Capstone\MIDTERM_SUBMISSION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANJANA\Documents\IITM BS\BDM_Capstone\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFAB08-E09F-4306-9CBC-82D4B1D70777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9899E29-7514-4E4A-B6E7-707DF60F01C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Key Attributes</t>
   </si>
   <si>
-    <t>Model No.</t>
-  </si>
-  <si>
     <t>Weighing Balance</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>MP-300</t>
+  </si>
+  <si>
+    <t>Product code</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -625,398 +625,398 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>23100</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>3600</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="3">
         <v>38000</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>74000</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>42000</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
         <v>110000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="3">
         <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C9" s="3">
         <v>11800</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C10" s="3">
         <v>125000</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C11" s="3">
         <v>30000</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3">
         <v>85000</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C13" s="3">
         <v>125000</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C14" s="3">
         <v>18900</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C15" s="3">
         <v>29000</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C16" s="3">
         <v>32500</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C17" s="3">
         <v>300000</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C18" s="3">
         <v>15000</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
